--- a/Data/xy.xlsx
+++ b/Data/xy.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DB6A6B-714E-4028-AB7B-62AD0DE36609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -627,8 +621,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,19 +685,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -745,7 +731,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -777,27 +763,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -829,24 +797,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1022,22 +972,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G436"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B166" sqref="A140:B166"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="84.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="68.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1080,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1103,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1126,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1149,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1172,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1195,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1218,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1241,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1264,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1287,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1310,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1333,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1379,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1402,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1425,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1448,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1471,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1494,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1517,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1540,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1563,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1586,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1609,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1632,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1655,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1678,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1701,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1724,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1744,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1764,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1784,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1804,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1824,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1844,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1864,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1884,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1904,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1924,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1944,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1964,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1984,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2007,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2030,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2053,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2076,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2099,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2122,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2145,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2168,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2191,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2214,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2237,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2260,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2283,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2306,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2329,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2352,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2375,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2398,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2421,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2444,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2467,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2490,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2513,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2536,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2559,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2582,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2605,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2628,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2651,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2674,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2697,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2720,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2743,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2766,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2786,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2806,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2826,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2846,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2866,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2886,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2906,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2926,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2946,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2966,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2986,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3009,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3032,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3055,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3078,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3101,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3124,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3147,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3170,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3193,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3216,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3239,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3262,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3285,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3308,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3331,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3354,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3377,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3400,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3423,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3446,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3469,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3492,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3515,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3538,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3561,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3584,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3607,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3630,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3653,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3676,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3699,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3722,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3745,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3768,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3788,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3808,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3828,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3848,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3868,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3888,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3908,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3928,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3948,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3968,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3988,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4008,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4028,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4051,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4074,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4097,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4120,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4143,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4166,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4189,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4212,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4235,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4258,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4281,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4304,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4327,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4350,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4373,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4396,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4419,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4442,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4465,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4488,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4511,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4534,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4557,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4580,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4603,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4626,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4649,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4672,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4695,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4718,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4741,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4761,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4781,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4801,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4821,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4841,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4861,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4881,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4901,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4921,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4941,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4964,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4987,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5010,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5033,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5056,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5079,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5102,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5125,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5148,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5171,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5194,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5217,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5240,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5263,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5286,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5309,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -5332,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -5355,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -5378,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -5401,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -5424,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -5447,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -5470,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -5493,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5516,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5539,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5562,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5585,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5608,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5631,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5654,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5677,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5700,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5723,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5743,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5763,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5783,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5803,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5823,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5843,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -5863,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -5883,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -5903,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -5923,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -5943,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -5966,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -5989,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6012,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -6035,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -6058,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -6081,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -6104,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -6127,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -6150,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -6173,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -6196,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -6219,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -6242,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -6265,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -6288,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -6311,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -6334,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -6357,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -6380,7 +6322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -6403,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -6426,7 +6368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -6449,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6472,7 +6414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6495,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6518,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6541,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6564,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6587,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -6610,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -6633,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -6656,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -6679,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -6702,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -6725,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -6745,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -6765,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -6785,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -6805,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -6825,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -6845,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -6865,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -6885,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -6905,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -6925,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -6945,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -6965,7 +6907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -6988,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -7011,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -7034,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -7057,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -7080,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -7103,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -7126,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -7149,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -7172,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -7195,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -7218,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -7241,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -7264,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -7287,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -7310,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -7333,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -7356,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -7379,7 +7321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -7402,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -7425,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7448,7 +7390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7471,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7494,7 +7436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7517,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7540,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7563,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -7586,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -7609,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -7632,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -7655,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -7678,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -7701,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -7724,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -7747,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -7767,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -7787,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -7807,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -7827,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -7847,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -7867,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -7887,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -7907,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -7927,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -7947,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -7967,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -7990,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -8013,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -8036,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -8059,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -8082,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -8105,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -8128,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -8151,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -8174,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -8197,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -8220,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -8243,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -8266,7 +8208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -8289,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -8312,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -8335,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -8358,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -8381,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -8404,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -8427,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -8450,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -8473,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -8496,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -8519,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -8542,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -8565,7 +8507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -8588,7 +8530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -8611,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -8634,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -8657,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -8680,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -8703,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -8726,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -8749,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -8769,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -8789,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -8809,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -8829,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -8849,7 +8791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -8869,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -8889,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -8909,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -8929,7 +8871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -8949,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -8969,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -8992,7 +8934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -9015,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -9038,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -9061,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -9084,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -9107,7 +9049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -9130,7 +9072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -9153,7 +9095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -9176,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -9199,7 +9141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -9222,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -9245,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -9268,7 +9210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -9291,7 +9233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -9314,7 +9256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -9337,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -9360,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -9383,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -9406,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -9429,7 +9371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -9452,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -9475,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -9498,7 +9440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -9521,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -9544,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -9567,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -9590,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -9613,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -9636,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -9659,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -9682,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -9705,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -9728,7 +9670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -9751,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -9771,7 +9713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -9791,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -9811,7 +9753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -9831,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -9851,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -9871,7 +9813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -9891,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -9911,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -9931,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -9951,7 +9893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -9971,7 +9913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -9994,7 +9936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -10017,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -10040,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -10063,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -10086,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -10109,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -10132,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -10155,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -10178,7 +10120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -10201,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -10224,7 +10166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -10247,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -10270,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -10293,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -10316,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -10339,7 +10281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -10362,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -10385,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -10408,7 +10350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -10431,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -10454,7 +10396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -10477,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -10500,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -10523,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -10546,7 +10488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -10569,7 +10511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -10592,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -10615,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -10638,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -10661,7 +10603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -10684,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -10707,7 +10649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -10730,7 +10672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7">
       <c r="A436" s="1">
         <v>434</v>
       </c>
